--- a/Team-Data/2012-13/12-16-2012-13.xlsx
+++ b/Team-Data/2012-13/12-16-2012-13.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -759,7 +826,7 @@
         <v>22</v>
       </c>
       <c r="AI2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AJ2" t="n">
         <v>19</v>
@@ -771,7 +838,7 @@
         <v>5</v>
       </c>
       <c r="AM2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AN2" t="n">
         <v>9</v>
@@ -804,10 +871,10 @@
         <v>3</v>
       </c>
       <c r="AX2" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AY2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AZ2" t="n">
         <v>2</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>12-16-2012-13</t>
+          <t>2012-12-16</t>
         </is>
       </c>
     </row>
@@ -926,10 +993,10 @@
         <v>-0.5</v>
       </c>
       <c r="AD3" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE3" t="n">
         <v>13</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>14</v>
       </c>
       <c r="AF3" t="n">
         <v>13</v>
@@ -938,7 +1005,7 @@
         <v>14</v>
       </c>
       <c r="AH3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI3" t="n">
         <v>10</v>
@@ -962,7 +1029,7 @@
         <v>12</v>
       </c>
       <c r="AP3" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AQ3" t="n">
         <v>4</v>
@@ -971,7 +1038,7 @@
         <v>30</v>
       </c>
       <c r="AS3" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AT3" t="n">
         <v>30</v>
@@ -980,7 +1047,7 @@
         <v>2</v>
       </c>
       <c r="AV3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AW3" t="n">
         <v>8</v>
@@ -989,7 +1056,7 @@
         <v>27</v>
       </c>
       <c r="AY3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ3" t="n">
         <v>20</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>12-16-2012-13</t>
+          <t>2012-12-16</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>2.1</v>
       </c>
       <c r="AD4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE4" t="n">
         <v>9</v>
@@ -1120,7 +1187,7 @@
         <v>11</v>
       </c>
       <c r="AH4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI4" t="n">
         <v>21</v>
@@ -1129,7 +1196,7 @@
         <v>23</v>
       </c>
       <c r="AK4" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL4" t="n">
         <v>9</v>
@@ -1141,19 +1208,19 @@
         <v>18</v>
       </c>
       <c r="AO4" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AP4" t="n">
         <v>10</v>
       </c>
       <c r="AQ4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AR4" t="n">
         <v>8</v>
       </c>
       <c r="AS4" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AT4" t="n">
         <v>17</v>
@@ -1168,7 +1235,7 @@
         <v>26</v>
       </c>
       <c r="AX4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AY4" t="n">
         <v>5</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>12-16-2012-13</t>
+          <t>2012-12-16</t>
         </is>
       </c>
     </row>
@@ -1290,16 +1357,16 @@
         <v>-7.9</v>
       </c>
       <c r="AD5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE5" t="n">
         <v>24</v>
       </c>
       <c r="AF5" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AH5" t="n">
         <v>6</v>
@@ -1317,10 +1384,10 @@
         <v>19</v>
       </c>
       <c r="AM5" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AN5" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AO5" t="n">
         <v>5</v>
@@ -1329,13 +1396,13 @@
         <v>5</v>
       </c>
       <c r="AQ5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AR5" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AS5" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AT5" t="n">
         <v>21</v>
@@ -1350,13 +1417,13 @@
         <v>21</v>
       </c>
       <c r="AX5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY5" t="n">
         <v>30</v>
       </c>
       <c r="AZ5" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BA5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>12-16-2012-13</t>
+          <t>2012-12-16</t>
         </is>
       </c>
     </row>
@@ -1472,7 +1539,7 @@
         <v>2.6</v>
       </c>
       <c r="AD6" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AE6" t="n">
         <v>9</v>
@@ -1502,7 +1569,7 @@
         <v>30</v>
       </c>
       <c r="AN6" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AO6" t="n">
         <v>7</v>
@@ -1532,10 +1599,10 @@
         <v>23</v>
       </c>
       <c r="AX6" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AY6" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AZ6" t="n">
         <v>5</v>
@@ -1547,7 +1614,7 @@
         <v>25</v>
       </c>
       <c r="BC6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BD6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>12-16-2012-13</t>
+          <t>2012-12-16</t>
         </is>
       </c>
     </row>
@@ -1657,7 +1724,7 @@
         <v>2</v>
       </c>
       <c r="AE7" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AF7" t="n">
         <v>30</v>
@@ -1666,7 +1733,7 @@
         <v>29</v>
       </c>
       <c r="AH7" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AI7" t="n">
         <v>25</v>
@@ -1690,13 +1757,13 @@
         <v>24</v>
       </c>
       <c r="AP7" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AQ7" t="n">
         <v>26</v>
       </c>
       <c r="AR7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AS7" t="n">
         <v>28</v>
@@ -1708,7 +1775,7 @@
         <v>27</v>
       </c>
       <c r="AV7" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AW7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>12-16-2012-13</t>
+          <t>2012-12-16</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1903,7 @@
         <v>-1.7</v>
       </c>
       <c r="AD8" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AE8" t="n">
         <v>18</v>
@@ -1845,7 +1912,7 @@
         <v>20</v>
       </c>
       <c r="AG8" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AH8" t="n">
         <v>3</v>
@@ -1860,7 +1927,7 @@
         <v>9</v>
       </c>
       <c r="AL8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM8" t="n">
         <v>12</v>
@@ -1872,7 +1939,7 @@
         <v>13</v>
       </c>
       <c r="AP8" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AQ8" t="n">
         <v>7</v>
@@ -1887,7 +1954,7 @@
         <v>18</v>
       </c>
       <c r="AU8" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AV8" t="n">
         <v>25</v>
@@ -1899,7 +1966,7 @@
         <v>13</v>
       </c>
       <c r="AY8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ8" t="n">
         <v>27</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>12-16-2012-13</t>
+          <t>2012-12-16</t>
         </is>
       </c>
     </row>
@@ -1940,100 +2007,100 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F9" t="n">
         <v>12</v>
       </c>
       <c r="G9" t="n">
-        <v>0.52</v>
+        <v>0.5</v>
       </c>
       <c r="H9" t="n">
         <v>48.4</v>
       </c>
       <c r="I9" t="n">
-        <v>39.1</v>
+        <v>38.8</v>
       </c>
       <c r="J9" t="n">
-        <v>83.59999999999999</v>
+        <v>83.5</v>
       </c>
       <c r="K9" t="n">
-        <v>0.468</v>
+        <v>0.465</v>
       </c>
       <c r="L9" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="M9" t="n">
         <v>18.2</v>
       </c>
       <c r="N9" t="n">
-        <v>0.338</v>
+        <v>0.334</v>
       </c>
       <c r="O9" t="n">
-        <v>17.2</v>
+        <v>17</v>
       </c>
       <c r="P9" t="n">
-        <v>25.2</v>
+        <v>25</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.6850000000000001</v>
+        <v>0.6820000000000001</v>
       </c>
       <c r="R9" t="n">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="S9" t="n">
-        <v>31</v>
+        <v>30.9</v>
       </c>
       <c r="T9" t="n">
-        <v>44.9</v>
+        <v>44.6</v>
       </c>
       <c r="U9" t="n">
-        <v>22.2</v>
+        <v>22</v>
       </c>
       <c r="V9" t="n">
-        <v>15.9</v>
+        <v>16.1</v>
       </c>
       <c r="W9" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="X9" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="Y9" t="n">
         <v>6.6</v>
       </c>
-      <c r="Y9" t="n">
-        <v>6.4</v>
-      </c>
       <c r="Z9" t="n">
-        <v>20.4</v>
+        <v>20.2</v>
       </c>
       <c r="AA9" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="AB9" t="n">
-        <v>101.6</v>
+        <v>100.8</v>
       </c>
       <c r="AC9" t="n">
-        <v>1.1</v>
+        <v>0.1</v>
       </c>
       <c r="AD9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AE9" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AF9" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH9" t="n">
         <v>19</v>
       </c>
       <c r="AI9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ9" t="n">
         <v>7</v>
@@ -2048,10 +2115,10 @@
         <v>22</v>
       </c>
       <c r="AN9" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AO9" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AP9" t="n">
         <v>6</v>
@@ -2060,31 +2127,31 @@
         <v>30</v>
       </c>
       <c r="AR9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AS9" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AT9" t="n">
         <v>5</v>
       </c>
       <c r="AU9" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AV9" t="n">
+        <v>28</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY9" t="n">
         <v>26</v>
       </c>
-      <c r="AW9" t="n">
-        <v>18</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>6</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>25</v>
-      </c>
       <c r="AZ9" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="BA9" t="n">
         <v>3</v>
@@ -2093,7 +2160,7 @@
         <v>8</v>
       </c>
       <c r="BC9" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>12-16-2012-13</t>
+          <t>2012-12-16</t>
         </is>
       </c>
     </row>
@@ -2236,13 +2303,13 @@
         <v>9</v>
       </c>
       <c r="AP10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AQ10" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AR10" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AS10" t="n">
         <v>15</v>
@@ -2254,7 +2321,7 @@
         <v>23</v>
       </c>
       <c r="AV10" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AW10" t="n">
         <v>27</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>12-16-2012-13</t>
+          <t>2012-12-16</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2449,7 @@
         <v>1.2</v>
       </c>
       <c r="AD11" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AE11" t="n">
         <v>5</v>
@@ -2418,13 +2485,13 @@
         <v>18</v>
       </c>
       <c r="AP11" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AQ11" t="n">
         <v>10</v>
       </c>
       <c r="AR11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AS11" t="n">
         <v>1</v>
@@ -2433,7 +2500,7 @@
         <v>3</v>
       </c>
       <c r="AU11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV11" t="n">
         <v>21</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>12-16-2012-13</t>
+          <t>2012-12-16</t>
         </is>
       </c>
     </row>
@@ -2486,100 +2553,100 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E12" t="n">
         <v>11</v>
       </c>
       <c r="F12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G12" t="n">
-        <v>0.478</v>
+        <v>0.5</v>
       </c>
       <c r="H12" t="n">
         <v>48.7</v>
       </c>
       <c r="I12" t="n">
-        <v>37</v>
+        <v>37.2</v>
       </c>
       <c r="J12" t="n">
-        <v>84.40000000000001</v>
+        <v>84.7</v>
       </c>
       <c r="K12" t="n">
-        <v>0.438</v>
+        <v>0.439</v>
       </c>
       <c r="L12" t="n">
-        <v>9.6</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="M12" t="n">
-        <v>27</v>
+        <v>27.1</v>
       </c>
       <c r="N12" t="n">
-        <v>0.356</v>
+        <v>0.358</v>
       </c>
       <c r="O12" t="n">
-        <v>20.1</v>
+        <v>19.9</v>
       </c>
       <c r="P12" t="n">
-        <v>26.2</v>
+        <v>26</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.768</v>
+        <v>0.767</v>
       </c>
       <c r="R12" t="n">
-        <v>11.7</v>
+        <v>11.9</v>
       </c>
       <c r="S12" t="n">
-        <v>32.6</v>
+        <v>32.4</v>
       </c>
       <c r="T12" t="n">
         <v>44.3</v>
       </c>
       <c r="U12" t="n">
-        <v>22.1</v>
+        <v>22.5</v>
       </c>
       <c r="V12" t="n">
-        <v>16.4</v>
+        <v>16.6</v>
       </c>
       <c r="W12" t="n">
-        <v>8.5</v>
+        <v>8.6</v>
       </c>
       <c r="X12" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Y12" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="Z12" t="n">
         <v>19.6</v>
       </c>
       <c r="AA12" t="n">
-        <v>19.7</v>
+        <v>19.5</v>
       </c>
       <c r="AB12" t="n">
-        <v>103.7</v>
+        <v>104.1</v>
       </c>
       <c r="AC12" t="n">
-        <v>-0.3</v>
+        <v>0</v>
       </c>
       <c r="AD12" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="AE12" t="n">
         <v>18</v>
       </c>
       <c r="AF12" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG12" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AH12" t="n">
         <v>8</v>
       </c>
       <c r="AI12" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AJ12" t="n">
         <v>4</v>
@@ -2603,10 +2670,10 @@
         <v>4</v>
       </c>
       <c r="AQ12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AR12" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AS12" t="n">
         <v>6</v>
@@ -2615,25 +2682,25 @@
         <v>6</v>
       </c>
       <c r="AU12" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AV12" t="n">
         <v>30</v>
       </c>
       <c r="AW12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AX12" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AY12" t="n">
         <v>27</v>
       </c>
       <c r="AZ12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA12" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="BB12" t="n">
         <v>3</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>12-16-2012-13</t>
+          <t>2012-12-16</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>0.6</v>
       </c>
       <c r="AD13" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AE13" t="n">
         <v>9</v>
@@ -2779,7 +2846,7 @@
         <v>24</v>
       </c>
       <c r="AO13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP13" t="n">
         <v>15</v>
@@ -2803,7 +2870,7 @@
         <v>18</v>
       </c>
       <c r="AW13" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AX13" t="n">
         <v>3</v>
@@ -2821,7 +2888,7 @@
         <v>29</v>
       </c>
       <c r="BC13" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>12-16-2012-13</t>
+          <t>2012-12-16</t>
         </is>
       </c>
     </row>
@@ -2928,7 +2995,7 @@
         <v>8.4</v>
       </c>
       <c r="AD14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE14" t="n">
         <v>4</v>
@@ -2958,7 +3025,7 @@
         <v>15</v>
       </c>
       <c r="AN14" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AO14" t="n">
         <v>10</v>
@@ -2970,7 +3037,7 @@
         <v>21</v>
       </c>
       <c r="AR14" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AS14" t="n">
         <v>20</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>12-16-2012-13</t>
+          <t>2012-12-16</t>
         </is>
       </c>
     </row>
@@ -3032,55 +3099,55 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F15" t="n">
         <v>14</v>
       </c>
       <c r="G15" t="n">
-        <v>0.44</v>
+        <v>0.417</v>
       </c>
       <c r="H15" t="n">
         <v>48</v>
       </c>
       <c r="I15" t="n">
-        <v>36</v>
+        <v>35.9</v>
       </c>
       <c r="J15" t="n">
         <v>79.3</v>
       </c>
       <c r="K15" t="n">
-        <v>0.454</v>
+        <v>0.453</v>
       </c>
       <c r="L15" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="M15" t="n">
-        <v>24.5</v>
+        <v>24.1</v>
       </c>
       <c r="N15" t="n">
-        <v>0.374</v>
+        <v>0.372</v>
       </c>
       <c r="O15" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="P15" t="n">
-        <v>30.3</v>
+        <v>30.6</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.6870000000000001</v>
+        <v>0.6840000000000001</v>
       </c>
       <c r="R15" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="S15" t="n">
-        <v>32.9</v>
+        <v>33</v>
       </c>
       <c r="T15" t="n">
-        <v>45.9</v>
+        <v>46.1</v>
       </c>
       <c r="U15" t="n">
         <v>20.3</v>
@@ -3089,43 +3156,43 @@
         <v>16.2</v>
       </c>
       <c r="W15" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="X15" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="Y15" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Z15" t="n">
-        <v>19.6</v>
+        <v>20</v>
       </c>
       <c r="AA15" t="n">
-        <v>24</v>
+        <v>24.3</v>
       </c>
       <c r="AB15" t="n">
-        <v>102.1</v>
+        <v>101.7</v>
       </c>
       <c r="AC15" t="n">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="AD15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AE15" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AF15" t="n">
         <v>22</v>
       </c>
       <c r="AG15" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AH15" t="n">
         <v>30</v>
       </c>
       <c r="AI15" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AJ15" t="n">
         <v>27</v>
@@ -3155,7 +3222,7 @@
         <v>5</v>
       </c>
       <c r="AS15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AT15" t="n">
         <v>2</v>
@@ -3167,16 +3234,16 @@
         <v>29</v>
       </c>
       <c r="AW15" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AX15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AY15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ15" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="BA15" t="n">
         <v>1</v>
@@ -3185,7 +3252,7 @@
         <v>7</v>
       </c>
       <c r="BC15" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>12-16-2012-13</t>
+          <t>2012-12-16</t>
         </is>
       </c>
     </row>
@@ -3346,7 +3413,7 @@
         <v>20</v>
       </c>
       <c r="AV16" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AW16" t="n">
         <v>2</v>
@@ -3364,7 +3431,7 @@
         <v>8</v>
       </c>
       <c r="BB16" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BC16" t="n">
         <v>5</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>12-16-2012-13</t>
+          <t>2012-12-16</t>
         </is>
       </c>
     </row>
@@ -3489,7 +3556,7 @@
         <v>22</v>
       </c>
       <c r="AI17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ17" t="n">
         <v>29</v>
@@ -3507,10 +3574,10 @@
         <v>3</v>
       </c>
       <c r="AO17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AP17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AQ17" t="n">
         <v>17</v>
@@ -3531,7 +3598,7 @@
         <v>5</v>
       </c>
       <c r="AW17" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AX17" t="n">
         <v>26</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>12-16-2012-13</t>
+          <t>2012-12-16</t>
         </is>
       </c>
     </row>
@@ -3656,10 +3723,10 @@
         <v>-1.2</v>
       </c>
       <c r="AD18" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AE18" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AF18" t="n">
         <v>11</v>
@@ -3683,7 +3750,7 @@
         <v>24</v>
       </c>
       <c r="AM18" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AN18" t="n">
         <v>28</v>
@@ -3707,7 +3774,7 @@
         <v>12</v>
       </c>
       <c r="AU18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AV18" t="n">
         <v>4</v>
@@ -3722,7 +3789,7 @@
         <v>4</v>
       </c>
       <c r="AZ18" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BA18" t="n">
         <v>22</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>12-16-2012-13</t>
+          <t>2012-12-16</t>
         </is>
       </c>
     </row>
@@ -3841,7 +3908,7 @@
         <v>26</v>
       </c>
       <c r="AE19" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AF19" t="n">
         <v>9</v>
@@ -3895,7 +3962,7 @@
         <v>23</v>
       </c>
       <c r="AW19" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AX19" t="n">
         <v>8</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>12-16-2012-13</t>
+          <t>2012-12-16</t>
         </is>
       </c>
     </row>
@@ -3942,22 +4009,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E20" t="n">
         <v>5</v>
       </c>
       <c r="F20" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G20" t="n">
-        <v>0.217</v>
+        <v>0.227</v>
       </c>
       <c r="H20" t="n">
-        <v>48.4</v>
+        <v>48.5</v>
       </c>
       <c r="I20" t="n">
-        <v>34.9</v>
+        <v>34.8</v>
       </c>
       <c r="J20" t="n">
         <v>79</v>
@@ -3966,31 +4033,31 @@
         <v>0.441</v>
       </c>
       <c r="L20" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="M20" t="n">
         <v>18.7</v>
       </c>
       <c r="N20" t="n">
-        <v>0.401</v>
+        <v>0.394</v>
       </c>
       <c r="O20" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="P20" t="n">
-        <v>18.8</v>
+        <v>19</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.778</v>
+        <v>0.78</v>
       </c>
       <c r="R20" t="n">
-        <v>10.9</v>
+        <v>10.6</v>
       </c>
       <c r="S20" t="n">
-        <v>29.5</v>
+        <v>29.6</v>
       </c>
       <c r="T20" t="n">
-        <v>40.3</v>
+        <v>40.2</v>
       </c>
       <c r="U20" t="n">
         <v>21.3</v>
@@ -3999,37 +4066,37 @@
         <v>14.6</v>
       </c>
       <c r="W20" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="X20" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="Y20" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="Z20" t="n">
-        <v>20.2</v>
+        <v>20.4</v>
       </c>
       <c r="AA20" t="n">
-        <v>19</v>
+        <v>19.3</v>
       </c>
       <c r="AB20" t="n">
-        <v>91.90000000000001</v>
+        <v>91.8</v>
       </c>
       <c r="AC20" t="n">
-        <v>-6.2</v>
+        <v>-6.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="AE20" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AF20" t="n">
         <v>26</v>
       </c>
       <c r="AG20" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AH20" t="n">
         <v>15</v>
@@ -4041,13 +4108,13 @@
         <v>28</v>
       </c>
       <c r="AK20" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AL20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM20" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AN20" t="n">
         <v>4</v>
@@ -4062,13 +4129,13 @@
         <v>8</v>
       </c>
       <c r="AR20" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AS20" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AT20" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AU20" t="n">
         <v>17</v>
@@ -4077,25 +4144,25 @@
         <v>10</v>
       </c>
       <c r="AW20" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AX20" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AY20" t="n">
         <v>28</v>
       </c>
       <c r="AZ20" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="BA20" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="BB20" t="n">
         <v>28</v>
       </c>
       <c r="BC20" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>12-16-2012-13</t>
+          <t>2012-12-16</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>7.1</v>
       </c>
       <c r="AD21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE21" t="n">
         <v>3</v>
@@ -4220,7 +4287,7 @@
         <v>9</v>
       </c>
       <c r="AJ21" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AK21" t="n">
         <v>11</v>
@@ -4235,10 +4302,10 @@
         <v>2</v>
       </c>
       <c r="AO21" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AP21" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AQ21" t="n">
         <v>16</v>
@@ -4271,7 +4338,7 @@
         <v>4</v>
       </c>
       <c r="BA21" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BB21" t="n">
         <v>4</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>12-16-2012-13</t>
+          <t>2012-12-16</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>9.300000000000001</v>
       </c>
       <c r="AD22" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE22" t="n">
         <v>1</v>
@@ -4396,7 +4463,7 @@
         <v>1</v>
       </c>
       <c r="AH22" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI22" t="n">
         <v>8</v>
@@ -4435,10 +4502,10 @@
         <v>15</v>
       </c>
       <c r="AU22" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AV22" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AW22" t="n">
         <v>22</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>12-16-2012-13</t>
+          <t>2012-12-16</t>
         </is>
       </c>
     </row>
@@ -4566,16 +4633,16 @@
         <v>-2.2</v>
       </c>
       <c r="AD23" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE23" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AF23" t="n">
         <v>20</v>
       </c>
       <c r="AG23" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AH23" t="n">
         <v>27</v>
@@ -4584,7 +4651,7 @@
         <v>15</v>
       </c>
       <c r="AJ23" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AK23" t="n">
         <v>13</v>
@@ -4596,7 +4663,7 @@
         <v>26</v>
       </c>
       <c r="AN23" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AO23" t="n">
         <v>30</v>
@@ -4611,13 +4678,13 @@
         <v>23</v>
       </c>
       <c r="AS23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AT23" t="n">
         <v>8</v>
       </c>
       <c r="AU23" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AV23" t="n">
         <v>19</v>
@@ -4632,7 +4699,7 @@
         <v>14</v>
       </c>
       <c r="AZ23" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BA23" t="n">
         <v>30</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>12-16-2012-13</t>
+          <t>2012-12-16</t>
         </is>
       </c>
     </row>
@@ -4670,64 +4737,64 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E24" t="n">
         <v>12</v>
       </c>
       <c r="F24" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G24" t="n">
-        <v>0.5</v>
+        <v>0.522</v>
       </c>
       <c r="H24" t="n">
         <v>48.4</v>
       </c>
       <c r="I24" t="n">
-        <v>36.3</v>
+        <v>36.1</v>
       </c>
       <c r="J24" t="n">
         <v>83.7</v>
       </c>
       <c r="K24" t="n">
-        <v>0.434</v>
+        <v>0.431</v>
       </c>
       <c r="L24" t="n">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="M24" t="n">
-        <v>17.7</v>
+        <v>17.3</v>
       </c>
       <c r="N24" t="n">
-        <v>0.354</v>
+        <v>0.351</v>
       </c>
       <c r="O24" t="n">
-        <v>13.6</v>
+        <v>14</v>
       </c>
       <c r="P24" t="n">
-        <v>18.6</v>
+        <v>19</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.732</v>
+        <v>0.736</v>
       </c>
       <c r="R24" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="S24" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="T24" t="n">
-        <v>41.1</v>
+        <v>41.3</v>
       </c>
       <c r="U24" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="V24" t="n">
-        <v>12.4</v>
+        <v>12.2</v>
       </c>
       <c r="W24" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="X24" t="n">
         <v>5.5</v>
@@ -4736,49 +4803,49 @@
         <v>5.1</v>
       </c>
       <c r="Z24" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="AA24" t="n">
-        <v>17.7</v>
+        <v>18.1</v>
       </c>
       <c r="AB24" t="n">
-        <v>92.5</v>
+        <v>92.3</v>
       </c>
       <c r="AC24" t="n">
-        <v>-2.8</v>
+        <v>-2.3</v>
       </c>
       <c r="AD24" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AE24" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG24" t="n">
         <v>14</v>
       </c>
-      <c r="AF24" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG24" t="n">
+      <c r="AH24" t="n">
         <v>17</v>
       </c>
-      <c r="AH24" t="n">
+      <c r="AI24" t="n">
         <v>18</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>17</v>
       </c>
       <c r="AJ24" t="n">
         <v>5</v>
       </c>
       <c r="AK24" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AL24" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AM24" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AN24" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AO24" t="n">
         <v>29</v>
@@ -4787,13 +4854,13 @@
         <v>29</v>
       </c>
       <c r="AQ24" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AR24" t="n">
         <v>20</v>
       </c>
       <c r="AS24" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AT24" t="n">
         <v>20</v>
@@ -4805,16 +4872,16 @@
         <v>2</v>
       </c>
       <c r="AW24" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AX24" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AY24" t="n">
         <v>15</v>
       </c>
       <c r="AZ24" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA24" t="n">
         <v>29</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>12-16-2012-13</t>
+          <t>2012-12-16</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>-4.1</v>
       </c>
       <c r="AD25" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AE25" t="n">
         <v>23</v>
@@ -4957,10 +5024,10 @@
         <v>21</v>
       </c>
       <c r="AM25" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AN25" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AO25" t="n">
         <v>26</v>
@@ -4972,7 +5039,7 @@
         <v>18</v>
       </c>
       <c r="AR25" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AS25" t="n">
         <v>29</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>12-16-2012-13</t>
+          <t>2012-12-16</t>
         </is>
       </c>
     </row>
@@ -5034,16 +5101,16 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E26" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F26" t="n">
         <v>12</v>
       </c>
       <c r="G26" t="n">
-        <v>0.478</v>
+        <v>0.455</v>
       </c>
       <c r="H26" t="n">
         <v>49.1</v>
@@ -5052,85 +5119,85 @@
         <v>36.2</v>
       </c>
       <c r="J26" t="n">
-        <v>83.09999999999999</v>
+        <v>83.3</v>
       </c>
       <c r="K26" t="n">
-        <v>0.436</v>
+        <v>0.434</v>
       </c>
       <c r="L26" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="M26" t="n">
-        <v>23.3</v>
+        <v>23</v>
       </c>
       <c r="N26" t="n">
-        <v>0.343</v>
+        <v>0.341</v>
       </c>
       <c r="O26" t="n">
-        <v>16.7</v>
+        <v>17</v>
       </c>
       <c r="P26" t="n">
-        <v>21.9</v>
+        <v>22.4</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.76</v>
+        <v>0.758</v>
       </c>
       <c r="R26" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="S26" t="n">
-        <v>28.3</v>
+        <v>28.6</v>
       </c>
       <c r="T26" t="n">
-        <v>40.2</v>
+        <v>40.4</v>
       </c>
       <c r="U26" t="n">
-        <v>19.4</v>
+        <v>19.1</v>
       </c>
       <c r="V26" t="n">
-        <v>14.8</v>
+        <v>15</v>
       </c>
       <c r="W26" t="n">
         <v>8.4</v>
       </c>
       <c r="X26" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="Y26" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="Z26" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="AA26" t="n">
         <v>19.8</v>
       </c>
-      <c r="AA26" t="n">
-        <v>19.6</v>
-      </c>
       <c r="AB26" t="n">
-        <v>97.09999999999999</v>
+        <v>97.2</v>
       </c>
       <c r="AC26" t="n">
-        <v>-2.8</v>
+        <v>-3</v>
       </c>
       <c r="AD26" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="AE26" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AF26" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG26" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AH26" t="n">
         <v>1</v>
       </c>
       <c r="AI26" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AJ26" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AK26" t="n">
         <v>21</v>
@@ -5139,52 +5206,52 @@
         <v>8</v>
       </c>
       <c r="AM26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AN26" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AO26" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AP26" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AQ26" t="n">
         <v>15</v>
       </c>
       <c r="AR26" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AS26" t="n">
         <v>30</v>
       </c>
       <c r="AT26" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AU26" t="n">
         <v>29</v>
       </c>
       <c r="AV26" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AW26" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AX26" t="n">
         <v>20</v>
       </c>
       <c r="AY26" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AZ26" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA26" t="n">
+        <v>19</v>
+      </c>
+      <c r="BB26" t="n">
         <v>14</v>
-      </c>
-      <c r="BA26" t="n">
-        <v>23</v>
-      </c>
-      <c r="BB26" t="n">
-        <v>15</v>
       </c>
       <c r="BC26" t="n">
         <v>22</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>12-16-2012-13</t>
+          <t>2012-12-16</t>
         </is>
       </c>
     </row>
@@ -5216,91 +5283,91 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E27" t="n">
         <v>7</v>
       </c>
       <c r="F27" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G27" t="n">
-        <v>0.304</v>
+        <v>0.318</v>
       </c>
       <c r="H27" t="n">
-        <v>48.4</v>
+        <v>48.5</v>
       </c>
       <c r="I27" t="n">
-        <v>35.7</v>
+        <v>36</v>
       </c>
       <c r="J27" t="n">
-        <v>83.2</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="K27" t="n">
-        <v>0.429</v>
+        <v>0.434</v>
       </c>
       <c r="L27" t="n">
         <v>6.3</v>
       </c>
       <c r="M27" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.342</v>
+      </c>
+      <c r="O27" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="P27" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0.762</v>
+      </c>
+      <c r="R27" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="S27" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="T27" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="U27" t="n">
         <v>18.6</v>
       </c>
-      <c r="N27" t="n">
-        <v>0.337</v>
-      </c>
-      <c r="O27" t="n">
-        <v>16.8</v>
-      </c>
-      <c r="P27" t="n">
-        <v>21.9</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>0.768</v>
-      </c>
-      <c r="R27" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="S27" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="T27" t="n">
-        <v>41</v>
-      </c>
-      <c r="U27" t="n">
-        <v>18.3</v>
-      </c>
       <c r="V27" t="n">
-        <v>14.8</v>
+        <v>15</v>
       </c>
       <c r="W27" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="X27" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="Y27" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="Z27" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="AA27" t="n">
-        <v>19.3</v>
+        <v>19.1</v>
       </c>
       <c r="AB27" t="n">
-        <v>94.59999999999999</v>
+        <v>94.5</v>
       </c>
       <c r="AC27" t="n">
-        <v>-6.4</v>
+        <v>-5.5</v>
       </c>
       <c r="AD27" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="AE27" t="n">
         <v>24</v>
       </c>
       <c r="AF27" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AG27" t="n">
         <v>24</v>
@@ -5309,46 +5376,46 @@
         <v>15</v>
       </c>
       <c r="AI27" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AJ27" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AK27" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AL27" t="n">
         <v>20</v>
       </c>
       <c r="AM27" t="n">
+        <v>20</v>
+      </c>
+      <c r="AN27" t="n">
         <v>19</v>
       </c>
-      <c r="AN27" t="n">
-        <v>25</v>
-      </c>
       <c r="AO27" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AP27" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AQ27" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AR27" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AS27" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AT27" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AU27" t="n">
         <v>30</v>
       </c>
       <c r="AV27" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AW27" t="n">
         <v>13</v>
@@ -5357,19 +5424,19 @@
         <v>25</v>
       </c>
       <c r="AY27" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AZ27" t="n">
         <v>25</v>
       </c>
       <c r="BA27" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="BB27" t="n">
         <v>22</v>
       </c>
       <c r="BC27" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="BD27" t="n">
         <v>10</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>12-16-2012-13</t>
+          <t>2012-12-16</t>
         </is>
       </c>
     </row>
@@ -5494,7 +5561,7 @@
         <v>1</v>
       </c>
       <c r="AJ28" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AK28" t="n">
         <v>3</v>
@@ -5509,7 +5576,7 @@
         <v>5</v>
       </c>
       <c r="AO28" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AP28" t="n">
         <v>24</v>
@@ -5536,7 +5603,7 @@
         <v>14</v>
       </c>
       <c r="AX28" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AY28" t="n">
         <v>16</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>12-16-2012-13</t>
+          <t>2012-12-16</t>
         </is>
       </c>
     </row>
@@ -5580,70 +5647,70 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E29" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F29" t="n">
         <v>19</v>
       </c>
       <c r="G29" t="n">
-        <v>0.24</v>
+        <v>0.208</v>
       </c>
       <c r="H29" t="n">
         <v>49</v>
       </c>
       <c r="I29" t="n">
-        <v>35.3</v>
+        <v>35.2</v>
       </c>
       <c r="J29" t="n">
-        <v>83.09999999999999</v>
+        <v>83</v>
       </c>
       <c r="K29" t="n">
-        <v>0.425</v>
+        <v>0.424</v>
       </c>
       <c r="L29" t="n">
         <v>7.2</v>
       </c>
       <c r="M29" t="n">
-        <v>22</v>
+        <v>21.7</v>
       </c>
       <c r="N29" t="n">
-        <v>0.328</v>
+        <v>0.332</v>
       </c>
       <c r="O29" t="n">
-        <v>17.6</v>
+        <v>17.7</v>
       </c>
       <c r="P29" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.778</v>
+        <v>0.775</v>
       </c>
       <c r="R29" t="n">
-        <v>10.6</v>
+        <v>10.8</v>
       </c>
       <c r="S29" t="n">
-        <v>30.1</v>
+        <v>29.8</v>
       </c>
       <c r="T29" t="n">
-        <v>40.7</v>
+        <v>40.6</v>
       </c>
       <c r="U29" t="n">
-        <v>20.8</v>
+        <v>20.5</v>
       </c>
       <c r="V29" t="n">
-        <v>13.2</v>
+        <v>13.4</v>
       </c>
       <c r="W29" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="X29" t="n">
-        <v>5.2</v>
+        <v>4.9</v>
       </c>
       <c r="Y29" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="Z29" t="n">
         <v>23.7</v>
@@ -5652,13 +5719,13 @@
         <v>19.7</v>
       </c>
       <c r="AB29" t="n">
-        <v>95.5</v>
+        <v>95.2</v>
       </c>
       <c r="AC29" t="n">
-        <v>-5.7</v>
+        <v>-6.2</v>
       </c>
       <c r="AD29" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AE29" t="n">
         <v>27</v>
@@ -5667,10 +5734,10 @@
         <v>28</v>
       </c>
       <c r="AG29" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AH29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI29" t="n">
         <v>23</v>
@@ -5688,22 +5755,22 @@
         <v>9</v>
       </c>
       <c r="AN29" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AO29" t="n">
         <v>11</v>
       </c>
       <c r="AP29" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AQ29" t="n">
         <v>9</v>
       </c>
       <c r="AR29" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AS29" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AT29" t="n">
         <v>23</v>
@@ -5718,22 +5785,22 @@
         <v>24</v>
       </c>
       <c r="AX29" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AY29" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AZ29" t="n">
         <v>30</v>
       </c>
       <c r="BA29" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BB29" t="n">
         <v>21</v>
       </c>
       <c r="BC29" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>12-16-2012-13</t>
+          <t>2012-12-16</t>
         </is>
       </c>
     </row>
@@ -5846,10 +5913,10 @@
         <v>9</v>
       </c>
       <c r="AF30" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG30" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AH30" t="n">
         <v>13</v>
@@ -5858,7 +5925,7 @@
         <v>12</v>
       </c>
       <c r="AJ30" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AK30" t="n">
         <v>12</v>
@@ -5879,7 +5946,7 @@
         <v>8</v>
       </c>
       <c r="AQ30" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AR30" t="n">
         <v>4</v>
@@ -5894,7 +5961,7 @@
         <v>5</v>
       </c>
       <c r="AV30" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AW30" t="n">
         <v>12</v>
@@ -5915,7 +5982,7 @@
         <v>9</v>
       </c>
       <c r="BC30" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>12-16-2012-13</t>
+          <t>2012-12-16</t>
         </is>
       </c>
     </row>
@@ -6028,7 +6095,7 @@
         <v>30</v>
       </c>
       <c r="AF31" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AG31" t="n">
         <v>30</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>12-16-2012-13</t>
+          <t>2012-12-16</t>
         </is>
       </c>
     </row>
